--- a/transformacion/staging/stg_beneficiarios_poai_2025.xlsx
+++ b/transformacion/staging/stg_beneficiarios_poai_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16166" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16196" uniqueCount="233">
   <si>
     <t>N°</t>
   </si>
@@ -50033,7 +50033,7 @@
         <v>54</v>
       </c>
       <c r="E1186">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1186">
         <v>4</v>
@@ -50145,7 +50145,7 @@
         <v>56</v>
       </c>
       <c r="G1188">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I1188" t="s">
         <v>183</v>
@@ -50294,6 +50294,15 @@
       <c r="D1191" t="s">
         <v>59</v>
       </c>
+      <c r="G1191">
+        <v>2</v>
+      </c>
+      <c r="I1191" t="s">
+        <v>183</v>
+      </c>
+      <c r="J1191" t="s">
+        <v>185</v>
+      </c>
       <c r="K1191" t="s">
         <v>184</v>
       </c>
@@ -50386,22 +50395,25 @@
         <v>61</v>
       </c>
       <c r="E1193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1193">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I1193" t="s">
         <v>183</v>
       </c>
       <c r="J1193" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K1193" t="s">
         <v>184</v>
       </c>
       <c r="M1193" t="s">
         <v>198</v>
+      </c>
+      <c r="N1193">
+        <v>1</v>
       </c>
       <c r="O1193" t="s">
         <v>212</v>
@@ -51506,6 +51518,15 @@
       <c r="D1215" t="s">
         <v>83</v>
       </c>
+      <c r="G1215">
+        <v>3</v>
+      </c>
+      <c r="I1215" t="s">
+        <v>183</v>
+      </c>
+      <c r="J1215" t="s">
+        <v>185</v>
+      </c>
       <c r="K1215" t="s">
         <v>184</v>
       </c>
@@ -51594,6 +51615,18 @@
       <c r="D1217" t="s">
         <v>85</v>
       </c>
+      <c r="E1217">
+        <v>1</v>
+      </c>
+      <c r="G1217">
+        <v>4</v>
+      </c>
+      <c r="I1217" t="s">
+        <v>183</v>
+      </c>
+      <c r="J1217" t="s">
+        <v>185</v>
+      </c>
       <c r="K1217" t="s">
         <v>184</v>
       </c>
@@ -51680,13 +51713,13 @@
         <v>87</v>
       </c>
       <c r="G1219">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I1219" t="s">
         <v>183</v>
       </c>
       <c r="J1219" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K1219" t="s">
         <v>184</v>
@@ -51877,13 +51910,13 @@
         <v>91</v>
       </c>
       <c r="G1223">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I1223" t="s">
         <v>183</v>
       </c>
       <c r="J1223" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K1223" t="s">
         <v>184</v>
@@ -51974,16 +52007,16 @@
         <v>93</v>
       </c>
       <c r="E1225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1225" t="s">
         <v>183</v>
       </c>
       <c r="J1225" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K1225" t="s">
         <v>184</v>
@@ -52073,6 +52106,15 @@
       <c r="D1227" t="s">
         <v>95</v>
       </c>
+      <c r="G1227">
+        <v>4</v>
+      </c>
+      <c r="I1227" t="s">
+        <v>183</v>
+      </c>
+      <c r="J1227" t="s">
+        <v>185</v>
+      </c>
       <c r="K1227" t="s">
         <v>184</v>
       </c>
@@ -52165,13 +52207,13 @@
         <v>1</v>
       </c>
       <c r="G1229">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I1229" t="s">
         <v>183</v>
       </c>
       <c r="J1229" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K1229" t="s">
         <v>184</v>
@@ -52262,13 +52304,13 @@
         <v>1</v>
       </c>
       <c r="G1231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1231" t="s">
         <v>183</v>
       </c>
       <c r="J1231" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K1231" t="s">
         <v>184</v>
@@ -52318,7 +52360,7 @@
         <v>183</v>
       </c>
       <c r="J1232" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K1232" t="s">
         <v>184</v>
@@ -52362,13 +52404,13 @@
         <v>1</v>
       </c>
       <c r="G1233">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I1233" t="s">
         <v>183</v>
       </c>
       <c r="J1233" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K1233" t="s">
         <v>184</v>
@@ -52702,6 +52744,18 @@
       <c r="D1240" t="s">
         <v>107</v>
       </c>
+      <c r="E1240">
+        <v>1</v>
+      </c>
+      <c r="F1240">
+        <v>1</v>
+      </c>
+      <c r="I1240" t="s">
+        <v>183</v>
+      </c>
+      <c r="J1240" t="s">
+        <v>185</v>
+      </c>
       <c r="K1240" t="s">
         <v>184</v>
       </c>
@@ -53225,6 +53279,18 @@
       <c r="D1251" t="s">
         <v>117</v>
       </c>
+      <c r="E1251">
+        <v>2</v>
+      </c>
+      <c r="G1251">
+        <v>1</v>
+      </c>
+      <c r="I1251" t="s">
+        <v>183</v>
+      </c>
+      <c r="J1251" t="s">
+        <v>185</v>
+      </c>
       <c r="K1251" t="s">
         <v>184</v>
       </c>
@@ -53410,6 +53476,18 @@
       <c r="D1255" t="s">
         <v>121</v>
       </c>
+      <c r="E1255">
+        <v>1</v>
+      </c>
+      <c r="G1255">
+        <v>8</v>
+      </c>
+      <c r="I1255" t="s">
+        <v>183</v>
+      </c>
+      <c r="J1255" t="s">
+        <v>185</v>
+      </c>
       <c r="K1255" t="s">
         <v>184</v>
       </c>
@@ -53448,6 +53526,18 @@
       <c r="D1256" t="s">
         <v>122</v>
       </c>
+      <c r="E1256">
+        <v>1</v>
+      </c>
+      <c r="G1256">
+        <v>6</v>
+      </c>
+      <c r="I1256" t="s">
+        <v>183</v>
+      </c>
+      <c r="J1256" t="s">
+        <v>185</v>
+      </c>
       <c r="K1256" t="s">
         <v>184</v>
       </c>
@@ -53786,6 +53876,18 @@
       <c r="D1263" t="s">
         <v>128</v>
       </c>
+      <c r="E1263">
+        <v>1</v>
+      </c>
+      <c r="G1263">
+        <v>6</v>
+      </c>
+      <c r="I1263" t="s">
+        <v>183</v>
+      </c>
+      <c r="J1263" t="s">
+        <v>185</v>
+      </c>
       <c r="K1263" t="s">
         <v>184</v>
       </c>
@@ -53878,19 +53980,22 @@
         <v>2</v>
       </c>
       <c r="G1265">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I1265" t="s">
         <v>183</v>
       </c>
       <c r="J1265" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K1265" t="s">
         <v>184</v>
       </c>
       <c r="M1265" t="s">
         <v>198</v>
+      </c>
+      <c r="N1265">
+        <v>2</v>
       </c>
       <c r="O1265" t="s">
         <v>212</v>
@@ -53924,8 +54029,17 @@
       <c r="D1266" t="s">
         <v>131</v>
       </c>
+      <c r="E1266">
+        <v>1</v>
+      </c>
       <c r="G1266">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I1266" t="s">
+        <v>183</v>
+      </c>
+      <c r="J1266" t="s">
+        <v>187</v>
       </c>
       <c r="K1266" t="s">
         <v>184</v>
@@ -53965,11 +54079,26 @@
       <c r="D1267" t="s">
         <v>82</v>
       </c>
+      <c r="E1267">
+        <v>1</v>
+      </c>
+      <c r="G1267">
+        <v>9</v>
+      </c>
+      <c r="I1267" t="s">
+        <v>183</v>
+      </c>
+      <c r="J1267" t="s">
+        <v>185</v>
+      </c>
       <c r="K1267" t="s">
         <v>184</v>
       </c>
       <c r="M1267" t="s">
         <v>198</v>
+      </c>
+      <c r="N1267">
+        <v>2</v>
       </c>
       <c r="O1267" t="s">
         <v>212</v>
@@ -54007,7 +54136,7 @@
         <v>3</v>
       </c>
       <c r="G1268">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I1268" t="s">
         <v>183</v>
@@ -54054,7 +54183,7 @@
         <v>132</v>
       </c>
       <c r="G1269">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1269" t="s">
         <v>183</v>
@@ -54101,7 +54230,7 @@
         <v>133</v>
       </c>
       <c r="E1270">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1270">
         <v>1</v>
@@ -54154,7 +54283,7 @@
         <v>134</v>
       </c>
       <c r="E1271">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1271">
         <v>1</v>
@@ -54207,7 +54336,7 @@
         <v>135</v>
       </c>
       <c r="E1272">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1272">
         <v>3</v>
@@ -55188,6 +55317,15 @@
       <c r="D1292" t="s">
         <v>92</v>
       </c>
+      <c r="G1292">
+        <v>1</v>
+      </c>
+      <c r="I1292" t="s">
+        <v>183</v>
+      </c>
+      <c r="J1292" t="s">
+        <v>185</v>
+      </c>
       <c r="K1292" t="s">
         <v>184</v>
       </c>
@@ -55226,6 +55364,9 @@
       <c r="D1293" t="s">
         <v>152</v>
       </c>
+      <c r="G1293">
+        <v>1</v>
+      </c>
       <c r="K1293" t="s">
         <v>184</v>
       </c>
@@ -55658,6 +55799,15 @@
       <c r="D1302" t="s">
         <v>160</v>
       </c>
+      <c r="G1302">
+        <v>1</v>
+      </c>
+      <c r="I1302" t="s">
+        <v>183</v>
+      </c>
+      <c r="J1302" t="s">
+        <v>185</v>
+      </c>
       <c r="K1302" t="s">
         <v>184</v>
       </c>
@@ -55803,7 +55953,7 @@
         <v>1</v>
       </c>
       <c r="G1305">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1305" t="s">
         <v>183</v>
@@ -55849,11 +55999,20 @@
       <c r="D1306" t="s">
         <v>162</v>
       </c>
+      <c r="I1306" t="s">
+        <v>183</v>
+      </c>
+      <c r="J1306" t="s">
+        <v>185</v>
+      </c>
       <c r="K1306" t="s">
         <v>184</v>
       </c>
       <c r="M1306" t="s">
         <v>198</v>
+      </c>
+      <c r="N1306">
+        <v>4</v>
       </c>
       <c r="O1306" t="s">
         <v>212</v>
@@ -55888,13 +56047,16 @@
         <v>146</v>
       </c>
       <c r="G1307">
+        <v>3</v>
+      </c>
+      <c r="H1307">
         <v>2</v>
       </c>
       <c r="I1307" t="s">
         <v>183</v>
       </c>
       <c r="J1307" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K1307" t="s">
         <v>184</v>
@@ -55934,8 +56096,11 @@
       <c r="D1308" t="s">
         <v>129</v>
       </c>
+      <c r="E1308">
+        <v>1</v>
+      </c>
       <c r="G1308">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1308">
         <v>4</v>
@@ -55944,7 +56109,7 @@
         <v>183</v>
       </c>
       <c r="J1308" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K1308" t="s">
         <v>184</v>
@@ -56093,6 +56258,9 @@
       <c r="D1311" t="s">
         <v>164</v>
       </c>
+      <c r="E1311">
+        <v>1</v>
+      </c>
       <c r="G1311">
         <v>5</v>
       </c>
@@ -56141,7 +56309,13 @@
         <v>165</v>
       </c>
       <c r="G1312">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="I1312" t="s">
+        <v>183</v>
+      </c>
+      <c r="J1312" t="s">
+        <v>187</v>
       </c>
       <c r="K1312" t="s">
         <v>184</v>
@@ -56182,7 +56356,7 @@
         <v>166</v>
       </c>
       <c r="E1313">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1313">
         <v>2</v>
@@ -56191,7 +56365,7 @@
         <v>183</v>
       </c>
       <c r="J1313" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K1313" t="s">
         <v>184</v>
@@ -56235,19 +56409,22 @@
         <v>1</v>
       </c>
       <c r="G1314">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I1314" t="s">
         <v>183</v>
       </c>
       <c r="J1314" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K1314" t="s">
         <v>184</v>
       </c>
       <c r="M1314" t="s">
         <v>198</v>
+      </c>
+      <c r="N1314">
+        <v>1</v>
       </c>
       <c r="O1314" t="s">
         <v>212</v>
@@ -56975,6 +57152,9 @@
       <c r="D1329" t="s">
         <v>70</v>
       </c>
+      <c r="E1329">
+        <v>1</v>
+      </c>
       <c r="G1329">
         <v>2</v>
       </c>
@@ -56985,7 +57165,7 @@
         <v>183</v>
       </c>
       <c r="J1329" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K1329" t="s">
         <v>184</v>
@@ -57029,16 +57209,16 @@
         <v>179</v>
       </c>
       <c r="E1330">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1330">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I1330" t="s">
         <v>183</v>
       </c>
       <c r="J1330" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K1330" t="s">
         <v>184</v>
